--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,223 +40,277 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>market</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>ia</t>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>see</t>
   </si>
   <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>time</t>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>paper</t>
+    <t>workers</t>
   </si>
   <si>
     <t>go</t>
   </si>
   <si>
-    <t>workers</t>
+    <t>people</t>
   </si>
   <si>
     <t>going</t>
   </si>
   <si>
-    <t>people</t>
-  </si>
-  <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
 </sst>
 </file>
@@ -614,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +676,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7226027397260274</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C3">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,31 +755,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.8888888888888888</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="N3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -733,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7222222222222222</v>
+        <v>0.6746575342465754</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,31 +805,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.8545454545454545</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4666666666666667</v>
+        <v>0.44</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,31 +855,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8346456692913385</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L5">
         <v>106</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3391472868217054</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C6">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D6">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8135593220338984</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="M6">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,217 +937,193 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02242424242424242</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>530</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1613</v>
+        <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="L7">
+        <v>94</v>
+      </c>
+      <c r="M7">
+        <v>94</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.7625</v>
-      </c>
-      <c r="L7">
-        <v>61</v>
-      </c>
-      <c r="M7">
-        <v>63</v>
-      </c>
-      <c r="N7">
-        <v>0.97</v>
-      </c>
-      <c r="O7">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.01965811965811966</v>
-      </c>
-      <c r="C8">
-        <v>46</v>
-      </c>
-      <c r="D8">
-        <v>813</v>
-      </c>
-      <c r="E8">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2294</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.7531645569620253</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L8">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="M8">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="N8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="N9">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7128712871287128</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="N10">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.6986899563318777</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="N11">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6555555555555556</v>
+        <v>0.775</v>
       </c>
       <c r="L12">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M12">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6521739130434783</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1105,99 +1135,99 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6236842105263158</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L14">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="M14">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>143</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.617737003058104</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L15">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="M15">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>125</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.5555555555555556</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L16">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.5555555555555556</v>
+        <v>0.6527415143603134</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1209,125 +1239,125 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.5454545454545454</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.5263157894736842</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.4477611940298508</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="N20">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.4056603773584906</v>
+        <v>0.625</v>
       </c>
       <c r="L21">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.3846153846153846</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1339,151 +1369,151 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.3838630806845966</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L23">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="M23">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>252</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.3836477987421384</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L24">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M24">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>98</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.34375</v>
+        <v>0.46875</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.3381443298969072</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L26">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>321</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.3354430379746836</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="N27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>105</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.3217391304347826</v>
+        <v>0.4276729559748428</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1495,47 +1525,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.3098591549295774</v>
+        <v>0.4046511627906977</v>
       </c>
       <c r="L29">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="M29">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.3048780487804878</v>
+        <v>0.4043062200956938</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1547,73 +1577,73 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>57</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.2909535452322738</v>
+        <v>0.392638036809816</v>
       </c>
       <c r="L31">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="M31">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>290</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.2876712328767123</v>
+        <v>0.3739130434782609</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M32">
         <v>43</v>
       </c>
       <c r="N32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.2824427480916031</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1625,125 +1655,125 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.2738853503184713</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.2687224669603524</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="L35">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M35">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>166</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.2672955974842767</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L36">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="N36">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>233</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>0.2668621700879765</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="L37">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="M37">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="N37">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="O37">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>250</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>0.2657342657342657</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1755,163 +1785,163 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>0.2647058823529412</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>100</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>0.26</v>
+        <v>0.3211678832116788</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>0.2556053811659193</v>
+        <v>0.3149038461538461</v>
       </c>
       <c r="L41">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="M41">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>664</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>0.2553672316384181</v>
+        <v>0.2993197278911565</v>
       </c>
       <c r="L42">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="M42">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>659</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K43">
-        <v>0.2549019607843137</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="L43">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>228</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>0.2505717085919634</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="L44">
-        <v>767</v>
+        <v>91</v>
       </c>
       <c r="M44">
-        <v>813</v>
+        <v>91</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2294</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1919,25 +1949,25 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.25</v>
+        <v>0.2937062937062937</v>
       </c>
       <c r="L45">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>198</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1945,25 +1975,25 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.2484848484848485</v>
+        <v>0.2925764192139738</v>
       </c>
       <c r="L46">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="M46">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>124</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1971,25 +2001,25 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.2477718360071301</v>
+        <v>0.2922636103151863</v>
       </c>
       <c r="L47">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="M47">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="N47">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>422</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1997,25 +2027,25 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.2477064220183486</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N48">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2023,169 +2053,169 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.2348484848484849</v>
+        <v>0.2893081761006289</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="K50">
-        <v>0.2340930674264008</v>
+        <v>0.2837209302325581</v>
       </c>
       <c r="L50">
-        <v>493</v>
+        <v>61</v>
       </c>
       <c r="M50">
-        <v>530</v>
+        <v>61</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1613</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K51">
-        <v>0.2314814814814815</v>
+        <v>0.2807606263982103</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="N51">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>83</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K52">
-        <v>0.2290076335877863</v>
+        <v>0.2773109243697479</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N52">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K53">
-        <v>0.2242990654205607</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L53">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="N53">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>498</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K54">
-        <v>0.224</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="L54">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="M54">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N54">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>97</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K55">
-        <v>0.2184873949579832</v>
+        <v>0.270042194092827</v>
       </c>
       <c r="L55">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="M55">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2197,229 +2227,229 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>93</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K56">
-        <v>0.2173913043478261</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L56">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N56">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>126</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K57">
-        <v>0.2103004291845494</v>
+        <v>0.2677165354330709</v>
       </c>
       <c r="L57">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M57">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N57">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>184</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K58">
-        <v>0.2076502732240437</v>
+        <v>0.2663139329805996</v>
       </c>
       <c r="L58">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="M58">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="N58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>145</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K59">
-        <v>0.2016317016317016</v>
+        <v>0.2654867256637168</v>
       </c>
       <c r="L59">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="N59">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>685</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K60">
-        <v>0.180673591438464</v>
+        <v>0.2630392788151964</v>
       </c>
       <c r="L60">
-        <v>574</v>
+        <v>817</v>
       </c>
       <c r="M60">
-        <v>598</v>
+        <v>818</v>
       </c>
       <c r="N60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>2603</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K61">
-        <v>0.1479820627802691</v>
+        <v>0.2606060606060606</v>
       </c>
       <c r="L61">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M61">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N61">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>190</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K62">
-        <v>0.1469534050179211</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="L62">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M62">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N62">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>238</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K63">
-        <v>0.1341463414634146</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="L63">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="M63">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="N63">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>994</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K64">
-        <v>0.1339869281045752</v>
+        <v>0.2574916759156493</v>
       </c>
       <c r="L64">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="M64">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2431,163 +2461,605 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>265</v>
+        <v>669</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K65">
-        <v>0.1288888888888889</v>
+        <v>0.2568807339449541</v>
       </c>
       <c r="L65">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M65">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N65">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>196</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K66">
-        <v>0.1256983240223464</v>
+        <v>0.2514018691588785</v>
       </c>
       <c r="L66">
-        <v>45</v>
+        <v>538</v>
       </c>
       <c r="M66">
-        <v>47</v>
+        <v>541</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>313</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K67">
-        <v>0.1103678929765886</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="L67">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M67">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>266</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K68">
-        <v>0.1091703056768559</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="L68">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="M68">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>204</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K69">
-        <v>0.0959409594095941</v>
+        <v>0.2397003745318352</v>
       </c>
       <c r="L69">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M69">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>490</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K70">
-        <v>0.09282700421940929</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L70">
+        <v>33</v>
+      </c>
+      <c r="M70">
+        <v>33</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K71">
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="L71">
+        <v>40</v>
+      </c>
+      <c r="M71">
+        <v>40</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K72">
+        <v>0.2090069284064665</v>
+      </c>
+      <c r="L72">
+        <v>181</v>
+      </c>
+      <c r="M72">
+        <v>182</v>
+      </c>
+      <c r="N72">
+        <v>0.99</v>
+      </c>
+      <c r="O72">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K73">
+        <v>0.201219512195122</v>
+      </c>
+      <c r="L73">
+        <v>33</v>
+      </c>
+      <c r="M73">
+        <v>33</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K74">
+        <v>0.1900593935604876</v>
+      </c>
+      <c r="L74">
+        <v>608</v>
+      </c>
+      <c r="M74">
+        <v>610</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K75">
+        <v>0.1897810218978102</v>
+      </c>
+      <c r="L75">
+        <v>26</v>
+      </c>
+      <c r="M75">
+        <v>26</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K76">
+        <v>0.1779359430604982</v>
+      </c>
+      <c r="L76">
+        <v>50</v>
+      </c>
+      <c r="M76">
+        <v>50</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M70">
-        <v>108</v>
-      </c>
-      <c r="N70">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O70">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>860</v>
+      <c r="K77">
+        <v>0.1688888888888889</v>
+      </c>
+      <c r="L77">
+        <v>38</v>
+      </c>
+      <c r="M77">
+        <v>38</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K78">
+        <v>0.1629955947136564</v>
+      </c>
+      <c r="L78">
+        <v>37</v>
+      </c>
+      <c r="M78">
+        <v>37</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K79">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="L79">
+        <v>28</v>
+      </c>
+      <c r="M79">
+        <v>28</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K80">
+        <v>0.1601307189542484</v>
+      </c>
+      <c r="L80">
+        <v>49</v>
+      </c>
+      <c r="M80">
+        <v>49</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K81">
+        <v>0.1491379310344828</v>
+      </c>
+      <c r="L81">
+        <v>173</v>
+      </c>
+      <c r="M81">
+        <v>174</v>
+      </c>
+      <c r="N81">
+        <v>0.99</v>
+      </c>
+      <c r="O81">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K82">
+        <v>0.1433333333333333</v>
+      </c>
+      <c r="L82">
+        <v>43</v>
+      </c>
+      <c r="M82">
+        <v>43</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K83">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="L83">
+        <v>49</v>
+      </c>
+      <c r="M83">
+        <v>49</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K84">
+        <v>0.1360294117647059</v>
+      </c>
+      <c r="L84">
+        <v>74</v>
+      </c>
+      <c r="M84">
+        <v>75</v>
+      </c>
+      <c r="N84">
+        <v>0.99</v>
+      </c>
+      <c r="O84">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K85">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="L85">
+        <v>25</v>
+      </c>
+      <c r="M85">
+        <v>25</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K86">
+        <v>0.1067357512953368</v>
+      </c>
+      <c r="L86">
+        <v>103</v>
+      </c>
+      <c r="M86">
+        <v>106</v>
+      </c>
+      <c r="N86">
+        <v>0.97</v>
+      </c>
+      <c r="O86">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K87">
+        <v>0.08996539792387544</v>
+      </c>
+      <c r="L87">
+        <v>26</v>
+      </c>
+      <c r="M87">
+        <v>26</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
